--- a/modeller.xlsx
+++ b/modeller.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\perarne\Envs\BTG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PerArne\webprosjekter\BTGCtrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>Kunde</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Ha en span? Til å vise en skjult tekst</t>
+  </si>
+  <si>
+    <t>Lengde</t>
   </si>
 </sst>
 </file>
@@ -870,7 +873,7 @@
   <dimension ref="B2:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,10 +1180,10 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
         <v>112</v>
@@ -1206,10 +1209,10 @@
         <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
         <v>113</v>
@@ -1232,7 +1235,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
         <v>88</v>
@@ -1258,7 +1261,7 @@
         <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
         <v>88</v>
@@ -1276,6 +1279,12 @@
       </c>
       <c r="F16" t="s">
         <v>90</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">

--- a/modeller.xlsx
+++ b/modeller.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="163">
   <si>
     <t>Kunde</t>
   </si>
@@ -372,13 +376,154 @@
   </si>
   <si>
     <t>Lengde</t>
+  </si>
+  <si>
+    <t>nytt apparat</t>
+  </si>
+  <si>
+    <t>kondemner spør om nytt</t>
+  </si>
+  <si>
+    <t>behold samme info, velge slokketype</t>
+  </si>
+  <si>
+    <t>Avviksrapport for: Ancistrus Eiendom AS</t>
+  </si>
+  <si>
+    <t>Dato: 19/03-2019</t>
+  </si>
+  <si>
+    <t>Ref.nr i henhold til dokumentasjon</t>
+  </si>
+  <si>
+    <t>Mangler etterlysende skilt, type flatt</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>Mangler etterlysende skilt, type plog</t>
+  </si>
+  <si>
+    <t>Mangler etterlysende skilt "slokkeutstyr innenfor"</t>
+  </si>
+  <si>
+    <t>Pilretningsskilt for slokkeutstyr mot høyre/venstre</t>
+  </si>
+  <si>
+    <t>Etterlysende brannskilt må heves</t>
+  </si>
+  <si>
+    <t>Brannslokker må festes til vegg</t>
+  </si>
+  <si>
+    <t>håndslokkere</t>
+  </si>
+  <si>
+    <t>Kontroll er ikke utført</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Brannslokker ikke funnet</t>
+  </si>
+  <si>
+    <t>Brannslokkeren må ha støvkappe</t>
+  </si>
+  <si>
+    <t>Ikke godkjent brannslokker</t>
+  </si>
+  <si>
+    <t>Ny brannslokker er montert</t>
+  </si>
+  <si>
+    <t>håndslokker</t>
+  </si>
+  <si>
+    <t>Brannposten har defekt strålerør</t>
+  </si>
+  <si>
+    <t>brannpost</t>
+  </si>
+  <si>
+    <t>Brannpostens pakning lekker</t>
+  </si>
+  <si>
+    <t>Ikke godkjent brannpost</t>
+  </si>
+  <si>
+    <t>Div. avvik</t>
+  </si>
+  <si>
+    <t>Ref.nr</t>
+  </si>
+  <si>
+    <t>Evt, utfyllende kommentarer:</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>prod år</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>skum</t>
+  </si>
+  <si>
+    <t>brannpostene</t>
+  </si>
+  <si>
+    <t>pulver</t>
+  </si>
+  <si>
+    <t>slangevogner</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Fjerne kunder som er blitt kontrollert inneværende år</t>
+  </si>
+  <si>
+    <t>Legge til kontaktperson m/info</t>
+  </si>
+  <si>
+    <t>Sortere på navn, adresse, postnummer etc.</t>
+  </si>
+  <si>
+    <t>Søk</t>
+  </si>
+  <si>
+    <t>Fjerne eller sorter ut sortert på måned ved søk på navn</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Fjerne objekter som er utført kontroll på siste måneden?</t>
+  </si>
+  <si>
+    <t>Fylle ut Kontroll og Servicerutiner</t>
+  </si>
+  <si>
+    <t>Toast med avvik, kanskje hva som er registrert?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +572,62 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,8 +640,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -540,12 +745,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -588,6 +911,102 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,19 +1291,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +1389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1451,7 @@
       </c>
       <c r="AC5" s="11"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1049,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>53</v>
       </c>
@@ -1081,7 +1500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1614,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1221,7 +1640,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -1247,7 +1666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -1267,7 +1686,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -1287,7 +1706,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -1301,7 +1720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -1329,7 +1748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -1343,7 +1762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1351,7 +1770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -1359,7 +1778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>45</v>
       </c>
@@ -1367,7 +1786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>46</v>
       </c>
@@ -1375,7 +1794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -1383,7 +1802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -1391,8 +1810,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:18" ht="27" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="12" t="s">
         <v>57</v>
       </c>
@@ -1445,7 +1864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="13">
         <v>72</v>
       </c>
@@ -1500,4 +1919,952 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:Z30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="26" width="5.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="B6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="40"/>
+    </row>
+    <row r="9" spans="2:26" ht="21" x14ac:dyDescent="0.4">
+      <c r="B9" s="37"/>
+      <c r="C9" s="16">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16">
+        <v>19</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="2:26" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="66" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B19" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B21" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B22" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" ht="33" x14ac:dyDescent="0.35">
+      <c r="B23" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="19" x14ac:dyDescent="0.35">
+      <c r="B24" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" ht="19" x14ac:dyDescent="0.4">
+      <c r="B25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
+    </row>
+    <row r="26" spans="2:26" ht="19" x14ac:dyDescent="0.35">
+      <c r="B26" s="22"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="46"/>
+    </row>
+    <row r="27" spans="2:26" ht="19" x14ac:dyDescent="0.35">
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27"/>
+    </row>
+    <row r="28" spans="2:26" ht="19" x14ac:dyDescent="0.35">
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="27"/>
+    </row>
+    <row r="29" spans="2:26" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="24"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="30"/>
+    </row>
+    <row r="30" spans="2:26" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="24"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C27:Y27"/>
+    <mergeCell ref="C28:Y28"/>
+    <mergeCell ref="C29:Y29"/>
+    <mergeCell ref="C30:Y30"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:Y8"/>
+    <mergeCell ref="C25:Y25"/>
+    <mergeCell ref="C26:Y26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>